--- a/biology/Microbiologie/Hyphomicrobiales/Hyphomicrobiales.xlsx
+++ b/biology/Microbiologie/Hyphomicrobiales/Hyphomicrobiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taxon des Hyphomicrobiales est un ordre d'Alphaproteobacteria qui comprend l'ancien ordre Rhizobiales dont le nom est illégitime. Les rhizobia, qui fixent l'azote et sont des symbiotes des racines végétales, apparaissent ci-dessous dans différentes familles de cet ordre. Le genre type de cet ordre est Rhizobium.
 </t>
@@ -513,12 +525,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Étymologie de Rhizobiales
-L'étymologie de l'ordre Rhizobiales est la suivante : N.L. neut. n. Rhizobium, genre type de cet ancien ordre; L. fem. pl. n. suff. -ales, suffixe utilisé pour désigner un ordre; N.L. fem. pl. n. Rhizobiales, l'ordre des Rhizobium[1].
-Étymologie de Hyphomicrobiales
-L'étymologie de l'ordre Hyphomicrobiales est la suivante : N.L. neut. n. Hyphomicrobium, genre type de cet ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Hyphomicrobiales, l'ordre des Hyphomicrobium[1].
-Taxons de rang inférieurs
-Selon la LPSN  (9 novembre 2022)[2], l'ordre des Hyphomicrobiales comprend 42 familles dont 38 possédant un nom correct et valide dont :
+          <t>Étymologie de Rhizobiales</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'ordre Rhizobiales est la suivante : N.L. neut. n. Rhizobium, genre type de cet ancien ordre; L. fem. pl. n. suff. -ales, suffixe utilisé pour désigner un ordre; N.L. fem. pl. n. Rhizobiales, l'ordre des Rhizobium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hyphomicrobiales</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphomicrobiales</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie de Hyphomicrobiales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de l'ordre Hyphomicrobiales est la suivante : N.L. neut. n. Hyphomicrobium, genre type de cet ordre; L. fem. pl. n. suff. -ales, suffixe pour définir un ordre; N.L. fem. pl. n. Hyphomicrobiales, l'ordre des Hyphomicrobium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hyphomicrobiales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphomicrobiales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxons de rang inférieurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (9 novembre 2022), l'ordre des Hyphomicrobiales comprend 42 familles dont 38 possédant un nom correct et valide dont :
 Aestuariivirgaceae Li et al. 2019
 Afifellaceae Hördt et al. 2020
 Ahrensiaceae Hördt et al. 2020
